--- a/塔防.xlsx
+++ b/塔防.xlsx
@@ -4,17 +4,238 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="防御塔" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效攻击路径长度=2*(射程^2-(自身半径+路宽/2)^2)^1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（总HP前 - 总HP后）/塔每秒攻击 = （波长+有效攻击路径长度）/怪物移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础模型（时间相等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可能单体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每单位资源带来的dps</t>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重攻击型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围爆炸型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每牺牲一只怪能让波向前的距离=每只怪能顶的时间*怪移动速度-波间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效攻击路径长度 &gt;= 每牺牲一只怪能让波向前的距离 * 怪物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率闪电链型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次攻击多个在攻击范围内的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击怪物及其R范围内的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击有概率打出闪电链，闪电链会传导到附近的怪物身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物波长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每只怪能顶时间=怪物血量/塔攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,12 +256,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +306,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,14 +632,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="60" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>T6*F$8</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>ROUNDDOWN(E$8*T6/J8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U43" si="0">T7*F$8</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>ROUNDDOWN(E$8*T7/J8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f>N8*J8</f>
+        <v>500</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f>ROUNDDOWN((N$8-1)*O$8,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V7:V43" si="1">(N$8-1)*O$8</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>9</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17">
+        <v>11</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18">
+        <v>12</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19">
+        <v>13</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>14</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>15</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>16</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>17</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>18</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>19</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>20</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>21</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>22</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>23</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>24</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>25</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>26</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>27</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>29</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>30</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>32</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>33</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>34</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>35</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>36</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>37</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="D6:H6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/塔防.xlsx
+++ b/塔防.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,79 +160,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>★★★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★★</t>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每牺牲一只怪能让波向前的距离=每只怪能顶的时间*怪移动速度-波间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效攻击路径长度 &gt;= 每牺牲一只怪能让波向前的距离 * 怪物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率闪电链型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次攻击多个在攻击范围内的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击怪物及其R范围内的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击有概率打出闪电链，闪电链会传导到附近的怪物身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物波长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每只怪能顶时间=怪物血量/塔攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>★★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每牺牲一只怪能让波向前的距离=每只怪能顶的时间*怪移动速度-波间距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效攻击路径长度 &gt;= 每牺牲一只怪能让波向前的距离 * 怪物数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率闪电链型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次攻击多个在攻击范围内的怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击怪物及其R范围内的怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击有概率打出闪电链，闪电链会传导到附近的怪物身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物波长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔攻击次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每只怪能顶时间=怪物血量/塔攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +639,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -667,10 +671,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,16 +685,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,33 +702,33 @@
         <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,16 +736,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,7 +798,7 @@
   <dimension ref="B1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -816,13 +823,13 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
         <v>16</v>
@@ -1063,7 +1070,7 @@
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -1079,7 +1086,7 @@
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T18">
         <v>12</v>
@@ -1095,7 +1102,7 @@
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19">
         <v>13</v>

--- a/塔防.xlsx
+++ b/塔防.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91862B11-F682-4A48-A6B2-066434BD2084}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,25 +313,25 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,6 +426,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -460,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -645,24 +680,24 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="8"/>
-    <col min="5" max="5" width="60" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="60" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -670,13 +705,13 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -684,16 +719,16 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -701,16 +736,16 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -718,16 +753,16 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -735,16 +770,16 @@
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -794,11 +829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:W157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -836,24 +871,24 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="1" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="3" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="R6" s="4" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="R6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
@@ -864,8 +899,12 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f>ROUNDDOWN(E$8*T6/J8,0)</f>
-        <v>0</v>
+        <f>(N$8-ROUNDDOWN(E$8*T6/J$8,0))*O$8</f>
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <f>(N$8-ROUNDDOWN(E$8*T6/J$8,0))</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -913,8 +952,12 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <f>ROUNDDOWN(E$8*T7/J8,0)</f>
-        <v>0</v>
+        <f t="shared" ref="V7:V43" si="1">(N$8-ROUNDDOWN(E$8*T7/J$8,0))*O$8</f>
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W70" si="2">(N$8-ROUNDDOWN(E$8*T7/J$8,0))</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
@@ -960,8 +1003,12 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <f>ROUNDDOWN((N$8-1)*O$8,0)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -973,8 +1020,12 @@
         <v>3</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V7:V43" si="1">(N$8-1)*O$8</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -987,7 +1038,11 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -1002,6 +1057,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T12">
@@ -1015,6 +1074,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T13">
@@ -1028,6 +1091,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T14">
@@ -1041,6 +1108,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T15">
@@ -1054,6 +1125,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T16">
@@ -1065,10 +1140,14 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -1081,10 +1160,14 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -1097,10 +1180,14 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>45</v>
       </c>
@@ -1113,10 +1200,14 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T20">
         <v>14</v>
       </c>
@@ -1126,10 +1217,14 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T21">
         <v>15</v>
       </c>
@@ -1139,10 +1234,14 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T22">
         <v>16</v>
       </c>
@@ -1152,10 +1251,14 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T23">
         <v>17</v>
       </c>
@@ -1165,10 +1268,14 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>18</v>
       </c>
@@ -1178,10 +1285,14 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T25">
         <v>19</v>
       </c>
@@ -1191,10 +1302,14 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T26">
         <v>20</v>
       </c>
@@ -1204,10 +1319,14 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T27">
         <v>21</v>
       </c>
@@ -1217,10 +1336,14 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T28">
         <v>22</v>
       </c>
@@ -1230,10 +1353,14 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>23</v>
       </c>
@@ -1243,10 +1370,14 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T30">
         <v>24</v>
       </c>
@@ -1256,10 +1387,14 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>25</v>
       </c>
@@ -1269,10 +1404,14 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T32">
         <v>26</v>
       </c>
@@ -1282,10 +1421,14 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="20:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>27</v>
       </c>
@@ -1295,10 +1438,14 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="20:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>28</v>
       </c>
@@ -1308,10 +1455,14 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="20:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>29</v>
       </c>
@@ -1321,10 +1472,14 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="20:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>30</v>
       </c>
@@ -1334,10 +1489,14 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="20:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>31</v>
       </c>
@@ -1347,10 +1506,14 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="20:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>32</v>
       </c>
@@ -1360,10 +1523,14 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="20:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>33</v>
       </c>
@@ -1373,10 +1540,14 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="20:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>34</v>
       </c>
@@ -1386,10 +1557,14 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="20:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>35</v>
       </c>
@@ -1399,10 +1574,14 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="20:22" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>36</v>
       </c>
@@ -1412,10 +1591,14 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="20:22" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="20:23" x14ac:dyDescent="0.25">
       <c r="T43">
         <v>37</v>
       </c>
@@ -1425,7 +1608,1949 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>38</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ref="U44:U107" si="3">T44*F$8</f>
+        <v>38</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ref="V44:V107" si="4">(N$8-ROUNDDOWN(E$8*T44/J$8,0))*O$8</f>
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>39</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>40</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>41</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>42</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>43</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>44</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>45</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>46</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>47</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>48</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>49</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>50</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>51</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>52</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>53</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>54</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>55</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>56</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>57</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>58</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>59</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>60</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>61</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>62</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="69" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>63</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="70" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>64</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="71" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>65</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W71">
+        <f t="shared" ref="W71:W134" si="5">(N$8-ROUNDDOWN(E$8*T71/J$8,0))</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="72" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>66</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="73" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>67</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="74" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>68</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="75" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>69</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="76" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T76">
+        <v>70</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="77" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T77">
+        <v>71</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="78" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>72</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="79" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>73</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="80" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>74</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="81" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>75</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="82" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <v>76</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="83" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>77</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="84" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T84">
+        <v>78</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="85" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T85">
+        <v>79</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="86" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <v>80</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="87" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T87">
+        <v>81</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="88" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T88">
+        <v>82</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="89" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>83</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="90" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>84</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="91" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <v>85</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="92" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T92">
+        <v>86</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="93" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>87</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="94" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>88</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="95" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>89</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="96" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>90</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="97" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>91</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="98" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T98">
+        <v>92</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="99" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T99">
+        <v>93</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="100" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <v>94</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="101" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T101">
+        <v>95</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="102" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T102">
+        <v>96</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="103" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T103">
+        <v>97</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="104" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>98</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="105" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T105">
+        <v>99</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="106" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T106">
+        <v>100</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="107" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <v>101</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="108" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T108">
+        <v>102</v>
+      </c>
+      <c r="U108">
+        <f t="shared" ref="U108:U157" si="6">T108*F$8</f>
+        <v>102</v>
+      </c>
+      <c r="V108">
+        <f t="shared" ref="V108:V157" si="7">(N$8-ROUNDDOWN(E$8*T108/J$8,0))*O$8</f>
+        <v>-20</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="109" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T109">
+        <v>103</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T110">
+        <v>104</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="111" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T111">
+        <v>105</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="112" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T112">
+        <v>106</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="113" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T113">
+        <v>107</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="114" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T114">
+        <v>108</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="115" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T115">
+        <v>109</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="116" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T116">
+        <v>110</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="117" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T117">
+        <v>111</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="118" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T118">
+        <v>112</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="119" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T119">
+        <v>113</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="120" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T120">
+        <v>114</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="121" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T121">
+        <v>115</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="122" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T122">
+        <v>116</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="123" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T123">
+        <v>117</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="124" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T124">
+        <v>118</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="125" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T125">
+        <v>119</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="126" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T126">
+        <v>120</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="127" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T127">
+        <v>121</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="128" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T128">
+        <v>122</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="129" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T129">
+        <v>123</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="130" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T130">
+        <v>124</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="131" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T131">
+        <v>125</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="V131">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="132" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T132">
+        <v>126</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="133" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T133">
+        <v>127</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="134" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T134">
+        <v>128</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="135" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T135">
+        <v>129</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="W135">
+        <f t="shared" ref="W135:W157" si="8">(N$8-ROUNDDOWN(E$8*T135/J$8,0))</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="136" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T136">
+        <v>130</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="137" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T137">
+        <v>131</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="138" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T138">
+        <v>132</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="139" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T139">
+        <v>133</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="140" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T140">
+        <v>134</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="141" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T141">
+        <v>135</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="142" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T142">
+        <v>136</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="143" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T143">
+        <v>137</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="144" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T144">
+        <v>138</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="145" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T145">
+        <v>139</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="146" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T146">
+        <v>140</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="7"/>
+        <v>-36</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="147" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T147">
+        <v>141</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="7"/>
+        <v>-36</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="148" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T148">
+        <v>142</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="7"/>
+        <v>-36</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="149" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T149">
+        <v>143</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="7"/>
+        <v>-36</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="150" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T150">
+        <v>144</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="7"/>
+        <v>-36</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="151" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T151">
+        <v>145</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="152" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T152">
+        <v>146</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="153" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T153">
+        <v>147</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="154" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T154">
+        <v>148</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="155" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T155">
+        <v>149</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="156" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T156">
+        <v>150</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="8"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="157" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T157">
+        <v>151</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="8"/>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/塔防.xlsx
+++ b/塔防.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="单体输出型模拟" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="timeFromLastAttack" comment="距离上一次攻击时间">Sheet1!$S$7</definedName>
+    <definedName name="timeFromLastAttack" comment="距离上一次攻击时间">单体输出型模拟!$S$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,14 @@
     <t>特殊效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>单体输出型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需最大塔数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +352,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +407,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -433,14 +462,20 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +855,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -980,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1036,29 @@
     <col min="32" max="32" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
@@ -1179,6 +1236,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M13">
@@ -54124,7 +54184,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A2:I2"/>

--- a/塔防.xlsx
+++ b/塔防.xlsx
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
